--- a/output/logistics.xlsx
+++ b/output/logistics.xlsx
@@ -82,7 +82,7 @@
     <t>01032525816</t>
   </si>
   <si>
-    <t>781cd3a8-d7d2-489d-9a0d-f067714424ce</t>
+    <t>6f29df6c-a9c9-4a05-8c4d-19963c1c58e2</t>
   </si>
   <si>
     <t>알래스카오메가 - 1개</t>
